--- a/big_spikes.xlsx
+++ b/big_spikes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmcco\Desktop\04-GitHub-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCD6DC3-65E9-4293-80E6-C8B9B9C91C30}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBAB03-CFDC-427B-8DBD-0E3162098A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1875" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="big_spikes" sheetId="1" r:id="rId1"/>
@@ -1243,23 +1243,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="7" width="14.6640625" customWidth="1"/>
-    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="7" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1288,7 +1287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A33" si="0">E2-MOD(E2,10)</f>
         <v>1990</v>
@@ -1315,7 +1314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1345,7 +1344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1372,7 +1371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1402,7 +1401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1432,7 +1431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1930</v>
@@ -1462,7 +1461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1950</v>
@@ -1492,7 +1491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1519,7 +1518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1549,7 +1548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1940</v>
@@ -1579,7 +1578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1960</v>
@@ -1606,7 +1605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1636,7 +1635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1930</v>
@@ -1666,7 +1665,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1696,7 +1695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>1960</v>
@@ -1726,7 +1725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1756,7 +1755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1786,7 +1785,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>1890</v>
@@ -1813,7 +1812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -1843,7 +1842,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1870,7 +1869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1900,7 +1899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1930,7 +1929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1960,7 +1959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1990,7 +1989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2020,7 +2019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2047,7 +2046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2077,7 +2076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -2101,7 +2100,7 @@
         <v>411.32075471698101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2131,7 +2130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2161,7 +2160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2191,7 +2190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2221,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A56" si="1">E34-MOD(E34,10)</f>
         <v>1950</v>
@@ -2251,7 +2250,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -2281,7 +2280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2308,7 +2307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>1930</v>
@@ -2338,7 +2337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -2362,7 +2361,7 @@
         <v>1886.71875</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2392,7 +2391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2419,7 +2418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -2449,7 +2448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2473,7 +2472,7 @@
         <v>341.38755980861202</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2497,7 +2496,7 @@
         <v>1111.1111111111099</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -2527,7 +2526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>1950</v>
@@ -2557,7 +2556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>1960</v>
@@ -2587,7 +2586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2614,7 +2613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2641,7 +2640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -2668,7 +2667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>1930</v>
@@ -2692,7 +2691,7 @@
         <v>1498.5074626865601</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -2716,7 +2715,7 @@
         <v>421.739130434782</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>1950</v>
@@ -2746,7 +2745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2776,7 +2775,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2803,7 +2802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>1910</v>
@@ -2830,7 +2829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2855,13 +2854,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I56" xr:uid="{A9E542E6-3C06-4A9E-98BB-E50EFA9F210A}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="unknown"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I56" xr:uid="{A9E542E6-3C06-4A9E-98BB-E50EFA9F210A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/big_spikes.xlsx
+++ b/big_spikes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmcco\Desktop\04-GitHub-Project-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmcco\Desktop\05-GitHub-Project-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEBAB03-CFDC-427B-8DBD-0E3162098A6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E8DBDC-8E06-4E1D-8D27-D71144DD18B2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="1875" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="big_spikes" sheetId="1" r:id="rId1"/>
@@ -1246,19 +1246,19 @@
   <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="3" max="7" width="14.6640625" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -1287,7 +1287,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A33" si="0">E2-MOD(E2,10)</f>
         <v>1990</v>
@@ -1314,7 +1314,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1344,7 +1344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>2000</v>
@@ -1371,7 +1371,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1401,7 +1401,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1431,7 +1431,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>1930</v>
@@ -1461,7 +1461,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>1950</v>
@@ -1491,7 +1491,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1518,7 +1518,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1548,7 +1548,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>1940</v>
@@ -1578,7 +1578,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>1960</v>
@@ -1605,7 +1605,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1635,7 +1635,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>1930</v>
@@ -1665,7 +1665,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1695,7 +1695,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>1960</v>
@@ -1725,7 +1725,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1755,7 +1755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1785,7 +1785,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f t="shared" si="0"/>
         <v>1890</v>
@@ -1812,7 +1812,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -1842,7 +1842,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1869,7 +1869,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1899,7 +1899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -1929,7 +1929,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1959,7 +1959,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <f t="shared" si="0"/>
         <v>2010</v>
@@ -1989,7 +1989,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2019,7 +2019,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2046,7 +2046,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2076,7 +2076,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -2100,7 +2100,7 @@
         <v>411.32075471698101</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2130,7 +2130,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2160,7 +2160,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <f t="shared" si="0"/>
         <v>1980</v>
@@ -2190,7 +2190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <f t="shared" si="0"/>
         <v>1970</v>
@@ -2220,7 +2220,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <f t="shared" ref="A34:A56" si="1">E34-MOD(E34,10)</f>
         <v>1950</v>
@@ -2250,7 +2250,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -2280,7 +2280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2307,7 +2307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <f t="shared" si="1"/>
         <v>1930</v>
@@ -2337,7 +2337,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -2361,7 +2361,7 @@
         <v>1886.71875</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2391,7 +2391,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2418,7 +2418,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -2448,7 +2448,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2472,7 +2472,7 @@
         <v>341.38755980861202</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <f t="shared" si="1"/>
         <v>2000</v>
@@ -2496,7 +2496,7 @@
         <v>1111.1111111111099</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -2526,7 +2526,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <f t="shared" si="1"/>
         <v>1950</v>
@@ -2556,7 +2556,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <f t="shared" si="1"/>
         <v>1960</v>
@@ -2586,7 +2586,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2613,7 +2613,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2640,7 +2640,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <f t="shared" si="1"/>
         <v>1970</v>
@@ -2667,7 +2667,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <f t="shared" si="1"/>
         <v>1930</v>
@@ -2691,7 +2691,7 @@
         <v>1498.5074626865601</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <f t="shared" si="1"/>
         <v>1980</v>
@@ -2715,7 +2715,7 @@
         <v>421.739130434782</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <f t="shared" si="1"/>
         <v>1950</v>
@@ -2745,7 +2745,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2775,7 +2775,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -2802,7 +2802,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <f t="shared" si="1"/>
         <v>1910</v>
@@ -2829,7 +2829,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <f t="shared" si="1"/>
         <v>1990</v>
